--- a/nasscom.xlsx
+++ b/nasscom.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,370 +428,289 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="80" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>Title</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>Matched_Vertical</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>How_to_Apply</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Matched_Vertical</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Deadline</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Days_Left</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>Clickable_Link</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="C2" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/travel-and-transportation-services-for-trainer-mobility-ibm-skillbuild-bootcamps.pdf", "Travel &amp; Transportation Services for Trainer Mobility - IBM SkillBuild Bootcamps")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program -|</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="C3" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/baseline-and-end-line-evaluation-of-hsbc-neurodivergent-digital-annotator-skilling-program.pdf", "Baseline and End-line Evaluation of the HSBC Neurodivergent Digital Annotator Skilling Program -|")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Organization-wide Management Information System (MIS) for Nasscom Foundation</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Governance</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf","Base-line and End-line evaluation for Digital Literacy Project in 4 States - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="C4" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/organization-wide-management-information-system-for-nasscom-foundation.pdf", "Organization-wide Management Information System (MIS) for Nasscom Foundation")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Request for Proposal (RFP) for Social Media Management Services</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C5" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/request-for-proposal-for-social-media-management-services.pdf", "Request for Proposal (RFP) for Social Media Management Services")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RFP - TechForSociety - Evaluation Study</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="C6" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/techforsociety-evaluation-study.pdf", "RFP - TechForSociety - Evaluation Study")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Base-line and End-line evaluation for Digital Literacy Project in 4 States</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="C7" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/base-line-and-end-line-evaluation-for-digital-literacy-project-in-4-states.pdf", "Base-line and End-line evaluation for Digital Literacy Project in 4 States")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf","IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="C8" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/scholarship-support-for-economically-weaker-section-students-in-stem-higher-education.pdf", "IP Selection - Scholarship Support to students from Economically Weaker Section pursuing higher education in STEM courses")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf","Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="C9" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/baseline-endline-study-digital-upskilling-fpos-technology.pdf", "Digital Upskilling of Farmer Producer Organizations (FPOs) through Technology")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Learning</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf","Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf","Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf","RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf","Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English  - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf","Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada - Click here")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf","RFP - Trainer for Nano Women Entrepreneurs in Karnataka - Click here")</f>
+      <c r="C10" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/project-accelerating-100-women-micro-entrepreneurs-of-northeastern-states.pdf", "Project - Accelerating 100 Women Micro Entrepreneurs of Northeastern States")</f>
         <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf","RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka - Click here")</f>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="C11" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/agency-for-developing-training-modules-and-conducting-ToT-for-MSMEs-on-IPR-and-financial-management.pdf", "Agency for Developing Training Modules and Conducting Training of Trainers (ToT) for MSMEs on IPR and Financial Management")</f>
         <v/>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf","Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks - Click here")</f>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="C12" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/women-in-Innovation-skills-and-entrepreneurship.pdf", "RFP for WISE - Women in Innovation, Skills &amp; Entrepreneurship")</f>
         <v/>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nasscom</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>thingQbator Portal Enhancement and Maintenance Proposal - Click here</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13">
-        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/thingQbator-portal-enhancement-and-maintenance-proposal.pdf","thingQbator Portal Enhancement and Maintenance Proposal - Click here")</f>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="C13" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-English.pdf", "Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - English")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="C14" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/WEP-NI-ATR-RFA-Kannada.pdf", "Women Entrepreneurs Digital Upskilling Project - ATR Program In collaboration with Women Entrepreneurship Platform (WEP), NITI Aayog &amp; Nasscom Foundation - Kannada")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RFP - Trainer for Nano Women Entrepreneurs in Karnataka</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="C15" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/trainer-for-nano-women-entrepreneurs-in-karnataka.pdf", "RFP - Trainer for Nano Women Entrepreneurs in Karnataka")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="C16" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/training-agency-with-content-and-trainers-for-nano-women-entrepreneurs-in-karnataka.pdf", "RFP - Training Agency with Content and Trainers for Nano Women Entrepreneurs in Karnataka")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Safety</t>
+        </is>
+      </c>
+      <c r="C17" s="2">
+        <f>HYPERLINK("https://www.nasscomfoundation.org/pdf/access-to-e-governance-and-livelihood-in-pvtg-communities-in-aspirational-blocks.pdf", "Access to E-Governance and Livelihood in PVTG Communities in Aspirational Blocks")</f>
         <v/>
       </c>
     </row>
